--- a/data/outputs/spending_summarised_income.xlsx
+++ b/data/outputs/spending_summarised_income.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
         <v>51.2</v>
       </c>
       <c r="E2" t="n">
-        <v>128.72</v>
+        <v>128.7</v>
       </c>
       <c r="F2" t="n">
-        <v>82.38</v>
+        <v>82.37</v>
       </c>
       <c r="G2" t="n">
-        <v>87.87</v>
+        <v>87.98999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
         <v>51.2</v>
       </c>
       <c r="E3" t="n">
-        <v>73.84999999999999</v>
+        <v>73.88</v>
       </c>
       <c r="F3" t="n">
-        <v>47.27</v>
+        <v>47.28</v>
       </c>
       <c r="G3" t="n">
         <v>6.95</v>
@@ -542,13 +542,13 @@
         <v>41.6</v>
       </c>
       <c r="E4" t="n">
-        <v>131.09</v>
+        <v>131.05</v>
       </c>
       <c r="F4" t="n">
-        <v>83.90000000000001</v>
+        <v>83.87</v>
       </c>
       <c r="G4" t="n">
-        <v>203.44</v>
+        <v>203.6</v>
       </c>
     </row>
     <row r="5">
@@ -569,13 +569,13 @@
         <v>36.5</v>
       </c>
       <c r="E5" t="n">
-        <v>242.6</v>
+        <v>242.53</v>
       </c>
       <c r="F5" t="n">
-        <v>177.1</v>
+        <v>177.05</v>
       </c>
       <c r="G5" t="n">
-        <v>48.62</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="6">
@@ -596,10 +596,10 @@
         <v>43.8</v>
       </c>
       <c r="E6" t="n">
-        <v>186.72</v>
+        <v>186.93</v>
       </c>
       <c r="F6" t="n">
-        <v>136.31</v>
+        <v>136.46</v>
       </c>
       <c r="G6" t="n">
         <v>9.380000000000001</v>
@@ -623,13 +623,13 @@
         <v>41.61</v>
       </c>
       <c r="E7" t="n">
-        <v>160.52</v>
+        <v>160.73</v>
       </c>
       <c r="F7" t="n">
-        <v>117.18</v>
+        <v>117.33</v>
       </c>
       <c r="G7" t="n">
-        <v>237.55</v>
+        <v>237.36</v>
       </c>
     </row>
     <row r="8">
@@ -650,13 +650,13 @@
         <v>52.5</v>
       </c>
       <c r="E8" t="n">
-        <v>101.03</v>
+        <v>101.19</v>
       </c>
       <c r="F8" t="n">
-        <v>106.08</v>
+        <v>106.25</v>
       </c>
       <c r="G8" t="n">
-        <v>93.93000000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -677,13 +677,13 @@
         <v>38.85</v>
       </c>
       <c r="E9" t="n">
-        <v>53.88</v>
+        <v>53.76</v>
       </c>
       <c r="F9" t="n">
-        <v>56.58</v>
+        <v>56.45</v>
       </c>
       <c r="G9" t="n">
-        <v>11.42</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +704,13 @@
         <v>42</v>
       </c>
       <c r="E10" t="n">
-        <v>57.25</v>
+        <v>57.23</v>
       </c>
       <c r="F10" t="n">
-        <v>60.12</v>
+        <v>60.1</v>
       </c>
       <c r="G10" t="n">
-        <v>183.82</v>
+        <v>183.83</v>
       </c>
     </row>
     <row r="11">
@@ -731,13 +731,13 @@
         <v>52.5</v>
       </c>
       <c r="E11" t="n">
-        <v>113.88</v>
+        <v>113.85</v>
       </c>
       <c r="F11" t="n">
-        <v>119.57</v>
+        <v>119.54</v>
       </c>
       <c r="G11" t="n">
-        <v>48.54</v>
+        <v>48.61</v>
       </c>
     </row>
     <row r="12">
@@ -758,13 +758,13 @@
         <v>84</v>
       </c>
       <c r="E12" t="n">
-        <v>92.48999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="F12" t="n">
-        <v>97.11</v>
+        <v>97.13</v>
       </c>
       <c r="G12" t="n">
-        <v>11.49</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="13">
@@ -785,13 +785,13 @@
         <v>52.5</v>
       </c>
       <c r="E13" t="n">
-        <v>74.76000000000001</v>
+        <v>74.75</v>
       </c>
       <c r="F13" t="n">
         <v>78.48999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>238.15</v>
+        <v>238.78</v>
       </c>
     </row>
     <row r="14">
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="D14" t="n">
-        <v>46.9</v>
+        <v>33.5</v>
       </c>
       <c r="E14" t="n">
-        <v>8555.41</v>
+        <v>6753.55</v>
       </c>
       <c r="F14" t="n">
-        <v>57.32</v>
+        <v>45.25</v>
       </c>
       <c r="G14" t="n">
-        <v>183.27</v>
+        <v>93.28</v>
       </c>
     </row>
     <row r="15">
@@ -839,13 +839,13 @@
         <v>20.1</v>
       </c>
       <c r="E15" t="n">
-        <v>5849.11</v>
+        <v>3648.37</v>
       </c>
       <c r="F15" t="n">
-        <v>39.19</v>
+        <v>24.44</v>
       </c>
       <c r="G15" t="n">
-        <v>28.48</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="16">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="D16" t="n">
-        <v>38.86</v>
+        <v>33.5</v>
       </c>
       <c r="E16" t="n">
-        <v>8677.9</v>
+        <v>6728.1</v>
       </c>
       <c r="F16" t="n">
-        <v>58.14</v>
+        <v>45.08</v>
       </c>
       <c r="G16" t="n">
-        <v>87.59999999999999</v>
+        <v>121.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KSA (Saudi Arabia)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="D17" t="n">
-        <v>135</v>
+        <v>23.45</v>
       </c>
       <c r="E17" t="n">
-        <v>778.48</v>
+        <v>9674.610000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>210.19</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>116.16</v>
+        <v>75.45999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -910,23 +910,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="E18" t="n">
-        <v>689.35</v>
+        <v>955.3200000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>186.12</v>
+        <v>257.94</v>
       </c>
       <c r="G18" t="n">
-        <v>6.42</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="19">
@@ -937,7 +937,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -947,67 +947,67 @@
         <v>108</v>
       </c>
       <c r="E19" t="n">
-        <v>815.27</v>
+        <v>629.42</v>
       </c>
       <c r="F19" t="n">
-        <v>220.12</v>
+        <v>169.94</v>
       </c>
       <c r="G19" t="n">
-        <v>190.75</v>
+        <v>55.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>KSA (Saudi Arabia)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="D20" t="n">
-        <v>47.2</v>
+        <v>94.5</v>
       </c>
       <c r="E20" t="n">
-        <v>116.54</v>
+        <v>666.3099999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>68.76000000000001</v>
+        <v>179.9</v>
       </c>
       <c r="G20" t="n">
-        <v>88.31999999999999</v>
+        <v>170.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>KSA (Saudi Arabia)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>90</v>
+        <v>700</v>
       </c>
       <c r="D21" t="n">
-        <v>53.1</v>
+        <v>189</v>
       </c>
       <c r="E21" t="n">
-        <v>148.55</v>
+        <v>1215.26</v>
       </c>
       <c r="F21" t="n">
-        <v>87.64</v>
+        <v>328.12</v>
       </c>
       <c r="G21" t="n">
-        <v>9.109999999999999</v>
+        <v>37.07</v>
       </c>
     </row>
     <row r="22">
@@ -1018,77 +1018,77 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D22" t="n">
-        <v>35.4</v>
+        <v>47.2</v>
       </c>
       <c r="E22" t="n">
-        <v>198.2</v>
+        <v>116.59</v>
       </c>
       <c r="F22" t="n">
-        <v>116.94</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>197.74</v>
+        <v>88.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="D23" t="n">
-        <v>365</v>
+        <v>53.1</v>
       </c>
       <c r="E23" t="n">
-        <v>1093.79</v>
+        <v>148.74</v>
       </c>
       <c r="F23" t="n">
-        <v>798.46</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>56</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D24" t="n">
-        <v>65.7</v>
+        <v>35.4</v>
       </c>
       <c r="E24" t="n">
-        <v>111.75</v>
+        <v>198.38</v>
       </c>
       <c r="F24" t="n">
-        <v>81.58</v>
+        <v>117.05</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>197.83</v>
       </c>
     </row>
     <row r="25">
@@ -1099,77 +1099,77 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="D25" t="n">
-        <v>109.5</v>
+        <v>365</v>
       </c>
       <c r="E25" t="n">
-        <v>262.61</v>
+        <v>1093.79</v>
       </c>
       <c r="F25" t="n">
-        <v>191.71</v>
+        <v>798.46</v>
       </c>
       <c r="G25" t="n">
-        <v>217</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D26" t="n">
-        <v>52.5</v>
+        <v>65.7</v>
       </c>
       <c r="E26" t="n">
-        <v>74.33</v>
+        <v>111.75</v>
       </c>
       <c r="F26" t="n">
-        <v>78.05</v>
+        <v>81.58</v>
       </c>
       <c r="G26" t="n">
-        <v>44.51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D27" t="n">
-        <v>52.5</v>
+        <v>109.5</v>
       </c>
       <c r="E27" t="n">
-        <v>49.39</v>
+        <v>262.61</v>
       </c>
       <c r="F27" t="n">
-        <v>51.86</v>
+        <v>191.71</v>
       </c>
       <c r="G27" t="n">
-        <v>12.48</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
@@ -1180,77 +1180,77 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
-        <v>47.25</v>
+        <v>52.5</v>
       </c>
       <c r="E28" t="n">
-        <v>53.48</v>
+        <v>74.31</v>
       </c>
       <c r="F28" t="n">
-        <v>56.16</v>
+        <v>78.03</v>
       </c>
       <c r="G28" t="n">
-        <v>241.12</v>
+        <v>44.49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>USA (United States of America)</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="E29" t="n">
-        <v>154.86</v>
+        <v>49.38</v>
       </c>
       <c r="F29" t="n">
-        <v>154.86</v>
+        <v>51.85</v>
       </c>
       <c r="G29" t="n">
-        <v>29.25</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>USA (United States of America)</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>47.25</v>
       </c>
       <c r="E30" t="n">
-        <v>99.72</v>
+        <v>53.47</v>
       </c>
       <c r="F30" t="n">
-        <v>99.72</v>
+        <v>56.14</v>
       </c>
       <c r="G30" t="n">
-        <v>9.76</v>
+        <v>241.09</v>
       </c>
     </row>
     <row r="31">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1271,13 +1271,67 @@
         <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>123.91</v>
+        <v>154.79</v>
       </c>
       <c r="F31" t="n">
-        <v>123.91</v>
+        <v>154.79</v>
       </c>
       <c r="G31" t="n">
-        <v>203.58</v>
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>USA (United States of America)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>80</v>
+      </c>
+      <c r="D32" t="n">
+        <v>80</v>
+      </c>
+      <c r="E32" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="F32" t="n">
+        <v>99.69</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>USA (United States of America)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>60</v>
+      </c>
+      <c r="D33" t="n">
+        <v>60</v>
+      </c>
+      <c r="E33" t="n">
+        <v>123.94</v>
+      </c>
+      <c r="F33" t="n">
+        <v>123.94</v>
+      </c>
+      <c r="G33" t="n">
+        <v>203.66</v>
       </c>
     </row>
   </sheetData>
